--- a/src/db/la_diabla_menu.xlsx
+++ b/src/db/la_diabla_menu.xlsx
@@ -399,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -1241,7 +1241,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E43" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1568901346375-23c9450c58cd?w=400&amp;q=80</v>
       </c>
       <c r="F43" t="str">
         <v>S/.</v>
@@ -1261,7 +1261,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E44" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1572802419224-296b0aeee0d9?w=400&amp;q=80</v>
       </c>
       <c r="F44" t="str">
         <v>S/.</v>
@@ -1281,7 +1281,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E45" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1586816001966-79b736744398?w=400&amp;q=80</v>
       </c>
       <c r="F45" t="str">
         <v>S/.</v>
@@ -1301,7 +1301,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E46" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1550950158-d0d960dff596?w=400&amp;q=80</v>
       </c>
       <c r="F46" t="str">
         <v>S/.</v>
@@ -1321,7 +1321,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E47" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1565299543923-37dd37887442?w=400&amp;q=80</v>
       </c>
       <c r="F47" t="str">
         <v>S/.</v>
@@ -1341,7 +1341,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E48" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1551782450-17144efb9c50?w=400&amp;q=80</v>
       </c>
       <c r="F48" t="str">
         <v>S/.</v>
@@ -1361,7 +1361,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E49" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1553979459-d2229ba7433b?w=400&amp;q=80</v>
       </c>
       <c r="F49" t="str">
         <v>S/.</v>
@@ -1381,7 +1381,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E50" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1561758033-d89a9ad46330?w=400&amp;q=80</v>
       </c>
       <c r="F50" t="str">
         <v>S/.</v>
@@ -1401,7 +1401,7 @@
         <v>Hamburguesas</v>
       </c>
       <c r="E51" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1606131731446-5568d87113aa?w=400&amp;q=80</v>
       </c>
       <c r="F51" t="str">
         <v>S/.</v>
@@ -1421,7 +1421,7 @@
         <v>Salchipapas</v>
       </c>
       <c r="E52" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1573080496219-bb080dd4f877?w=400&amp;q=80</v>
       </c>
       <c r="F52" t="str">
         <v>S/.</v>
@@ -1441,7 +1441,7 @@
         <v>Salchipapas</v>
       </c>
       <c r="E53" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1585518419759-7fe2e0fbf8a6?w=400&amp;q=80</v>
       </c>
       <c r="F53" t="str">
         <v>S/.</v>
@@ -1461,7 +1461,7 @@
         <v>Salchipapas</v>
       </c>
       <c r="E54" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1568605115459-4b731184f961?w=400&amp;q=80</v>
       </c>
       <c r="F54" t="str">
         <v>S/.</v>
@@ -1481,7 +1481,7 @@
         <v>Salchipapas</v>
       </c>
       <c r="E55" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1511689660979-10d2b1eccbab?w=400&amp;q=80</v>
       </c>
       <c r="F55" t="str">
         <v>S/.</v>
@@ -1501,7 +1501,7 @@
         <v>Salchipapas</v>
       </c>
       <c r="E56" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1563805042-7684c019e1cb?w=400&amp;q=80</v>
       </c>
       <c r="F56" t="str">
         <v>S/.</v>
@@ -1521,7 +1521,7 @@
         <v>Parrillas</v>
       </c>
       <c r="E57" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1529193591184-b1d58069ecdd?w=400&amp;q=80</v>
       </c>
       <c r="F57" t="str">
         <v>S/.</v>
@@ -1541,7 +1541,7 @@
         <v>Parrillas</v>
       </c>
       <c r="E58" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1544025162-d76538e5e0a1?w=400&amp;q=80</v>
       </c>
       <c r="F58" t="str">
         <v>S/.</v>

--- a/src/db/la_diabla_menu.xlsx
+++ b/src/db/la_diabla_menu.xlsx
@@ -429,19 +429,19 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Perú Libre</v>
+        <v>Sanguche Hawaiano</v>
       </c>
       <c r="B3" t="str">
-        <v/>
+        <v>Pollito al grill con su rodaja de piña y su queso derretido acompañadas de sus papitas fritas.</v>
       </c>
       <c r="C3" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D3" t="str">
-        <v>Cocteles</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1568901346375-23c9450c58cd?w=400&amp;q=80</v>
       </c>
       <c r="F3" t="str">
         <v>S/.</v>
@@ -449,19 +449,19 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Cuba Libre</v>
+        <v>Criolla</v>
       </c>
       <c r="B4" t="str">
-        <v/>
+        <v>Nuestra hamburguesa aderezada con sabores a carretilla, adornada con chorizo artesanal, la cubre dados de palta y una tartara de la casa.</v>
       </c>
       <c r="C4" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D4" t="str">
-        <v>Cocteles</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1572802419224-296b0aeee0d9?w=400&amp;q=80</v>
       </c>
       <c r="F4" t="str">
         <v>S/.</v>
@@ -469,19 +469,19 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Machu Picchu</v>
+        <v>Santa Isabel</v>
       </c>
       <c r="B5" t="str">
-        <v/>
+        <v>Una artesanal montada con chorizo aplastador, queso edam pickles, su chimichurri y una cremita de nuestro rocoto peruano.</v>
       </c>
       <c r="C5" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D5" t="str">
-        <v>Cocteles</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E5" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1586816001966-79b736744398?w=400&amp;q=80</v>
       </c>
       <c r="F5" t="str">
         <v>S/.</v>
@@ -489,19 +489,19 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Piña Colada</v>
+        <v>Imperial Plus</v>
       </c>
       <c r="B6" t="str">
-        <v/>
+        <v>Tocino tostado con huevo a la inglesa más su queso derretido. ¡Combinación que no tiene pierde!</v>
       </c>
       <c r="C6" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D6" t="str">
-        <v>Cocteles</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E6" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1550950158-d0d960dff596?w=400&amp;q=80</v>
       </c>
       <c r="F6" t="str">
         <v>S/.</v>
@@ -509,19 +509,19 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Daiquiri (Durazno, Fresa, Mango)</v>
+        <v>Amazonico</v>
       </c>
       <c r="B7" t="str">
-        <v/>
+        <v>De la selva su hamburguesa, chorizo selvatico, plátano bellaco dorado, pico de gallo con palta y su mayonesa de culantro.</v>
       </c>
       <c r="C7" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D7" t="str">
-        <v>Cocteles</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E7" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1565299543923-37dd37887442?w=400&amp;q=80</v>
       </c>
       <c r="F7" t="str">
         <v>S/.</v>
@@ -529,19 +529,19 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Pisco Sour Canela</v>
+        <v>Pecado Elevado</v>
       </c>
       <c r="B8" t="str">
-        <v/>
+        <v>Un clasico de la casa, huevo a la inglesa plátano dorado y su tocino tostado bañado con una mayonesa de culantro.</v>
       </c>
       <c r="C8" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D8" t="str">
-        <v>Pisco Sour</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E8" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1551782450-17144efb9c50?w=400&amp;q=80</v>
       </c>
       <c r="F8" t="str">
         <v>S/.</v>
@@ -549,19 +549,19 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Pisco Sour Flor de Jamaica</v>
+        <v>Vaquero</v>
       </c>
       <c r="B9" t="str">
-        <v/>
+        <v>Su hamburguesa jugosa montada con tocino, queso cheddar, huevo montado y su salsa draft.</v>
       </c>
       <c r="C9" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D9" t="str">
-        <v>Pisco Sour</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E9" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1553979459-d2229ba7433b?w=400&amp;q=80</v>
       </c>
       <c r="F9" t="str">
         <v>S/.</v>
@@ -569,19 +569,19 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Pisco Sour Clásico</v>
+        <v>La Gaucha</v>
       </c>
       <c r="B10" t="str">
-        <v/>
+        <v>Hamburguesa a la parrilla montada con chorizo a las hierbas finas, chimichurri, cebolla dorada y su pico de gallo.</v>
       </c>
       <c r="C10" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" t="str">
-        <v>Pisco Sour</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E10" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1561758033-d89a9ad46330?w=400&amp;q=80</v>
       </c>
       <c r="F10" t="str">
         <v>S/.</v>
@@ -589,19 +589,19 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Pisco Sour Maracuyá</v>
+        <v>Burking</v>
       </c>
       <c r="B11" t="str">
-        <v/>
+        <v>Hamburguesa artesanal bañada con nuestro BBQ americano, lonjas de tocino, pickles y su unión rings. ¡Para que mas, pecador!</v>
       </c>
       <c r="C11" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D11" t="str">
-        <v>Pisco Sour</v>
+        <v>Hamburguesas</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1606131731446-5568d87113aa?w=400&amp;q=80</v>
       </c>
       <c r="F11" t="str">
         <v>S/.</v>
@@ -609,19 +609,19 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Pisco Sour Hoja de Coca</v>
+        <v>Salchipapa De la Casa</v>
       </c>
       <c r="B12" t="str">
-        <v/>
+        <v>Dados de pollito al panco, acompañado de nuestro frankfourt con su ensalada y papas fritas.</v>
       </c>
       <c r="C12" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12" t="str">
-        <v>Pisco Sour</v>
+        <v>Salchipapas</v>
       </c>
       <c r="E12" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1573080496219-bb080dd4f877?w=400&amp;q=80</v>
       </c>
       <c r="F12" t="str">
         <v>S/.</v>
@@ -629,19 +629,19 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Mojito Clásico</v>
+        <v>La Callejera</v>
       </c>
       <c r="B13" t="str">
-        <v/>
+        <v>La tradicional montada con plátano dorado y su tocino ahumado.</v>
       </c>
       <c r="C13" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D13" t="str">
-        <v>Mojitos</v>
+        <v>Salchipapas</v>
       </c>
       <c r="E13" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1585518419759-7fe2e0fbf8a6?w=400&amp;q=80</v>
       </c>
       <c r="F13" t="str">
         <v>S/.</v>
@@ -649,19 +649,19 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Mojito Fresa</v>
+        <v>La Completa</v>
       </c>
       <c r="B14" t="str">
-        <v/>
+        <v>Imaginar un huevito a la inglesa y plátano montado es demasiado sabroso y un clasico de la casa.</v>
       </c>
       <c r="C14" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D14" t="str">
-        <v>Mojitos</v>
+        <v>Salchipapas</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1568605115459-4b731184f961?w=400&amp;q=80</v>
       </c>
       <c r="F14" t="str">
         <v>S/.</v>
@@ -669,19 +669,19 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Mojito Maracuyá</v>
+        <v>La Acecina</v>
       </c>
       <c r="B15" t="str">
-        <v/>
+        <v>Chorizo selvático, cecina y frankfurt. ¡Una combinación paradora!</v>
       </c>
       <c r="C15" t="str">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D15" t="str">
-        <v>Mojitos</v>
+        <v>Salchipapas</v>
       </c>
       <c r="E15" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1511689660979-10d2b1eccbab?w=400&amp;q=80</v>
       </c>
       <c r="F15" t="str">
         <v>S/.</v>
@@ -689,19 +689,19 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Mojito Aguaymanto</v>
+        <v>La Golosa</v>
       </c>
       <c r="B16" t="str">
-        <v/>
+        <v>Nuestro embutido frankfurt sale con trozos de panceta ahumada, sus papasfritas y nuestra ensalada orgánica.</v>
       </c>
       <c r="C16" t="str">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D16" t="str">
-        <v>Mojitos</v>
+        <v>Salchipapas</v>
       </c>
       <c r="E16" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1563805042-7684c019e1cb?w=400&amp;q=80</v>
       </c>
       <c r="F16" t="str">
         <v>S/.</v>
@@ -709,19 +709,19 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Pilsen</v>
+        <v>Anticuchos de Corazón</v>
       </c>
       <c r="B17" t="str">
-        <v/>
+        <v>Sabor a carretilla y sale con sus papas amarillas fritas.</v>
       </c>
       <c r="C17" t="str">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D17" t="str">
-        <v>Cervezas</v>
+        <v>Parrillas</v>
       </c>
       <c r="E17" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1529193591184-b1d58069ecdd?w=400&amp;q=80</v>
       </c>
       <c r="F17" t="str">
         <v>S/.</v>
@@ -729,19 +729,19 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Cusqueña</v>
+        <v>Mollejitas a la Parrilla</v>
       </c>
       <c r="B18" t="str">
-        <v/>
+        <v>Infaltable en las calles y en nuestra carta. Salen con sus papas amarillas fritas.</v>
       </c>
       <c r="C18" t="str">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D18" t="str">
-        <v>Cervezas</v>
+        <v>Parrillas</v>
       </c>
       <c r="E18" t="str">
-        <v/>
+        <v>https://images.unsplash.com/photo-1544025162-d76538e5e0a1?w=400&amp;q=80</v>
       </c>
       <c r="F18" t="str">
         <v>S/.</v>
@@ -749,16 +749,16 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Corona</v>
+        <v>Perú Libre</v>
       </c>
       <c r="B19" t="str">
         <v/>
       </c>
       <c r="C19" t="str">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D19" t="str">
-        <v>Cervezas</v>
+        <v>Cocteles</v>
       </c>
       <c r="E19" t="str">
         <v/>
@@ -769,16 +769,16 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Balde Cerveza (6 und) Cusqueña - Corona - Pilsen</v>
+        <v>Cuba Libre</v>
       </c>
       <c r="B20" t="str">
         <v/>
       </c>
       <c r="C20" t="str">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D20" t="str">
-        <v>Cervezas</v>
+        <v>Cocteles</v>
       </c>
       <c r="E20" t="str">
         <v/>
@@ -789,16 +789,16 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Vino Rose Queirolo</v>
+        <v>Machu Picchu</v>
       </c>
       <c r="B21" t="str">
         <v/>
       </c>
       <c r="C21" t="str">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D21" t="str">
-        <v>Botellas</v>
+        <v>Cocteles</v>
       </c>
       <c r="E21" t="str">
         <v/>
@@ -809,16 +809,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Vino Tabernero</v>
+        <v>Piña Colada</v>
       </c>
       <c r="B22" t="str">
         <v/>
       </c>
       <c r="C22" t="str">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="D22" t="str">
-        <v>Botellas</v>
+        <v>Cocteles</v>
       </c>
       <c r="E22" t="str">
         <v/>
@@ -829,16 +829,16 @@
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Agua San Mateo Personal</v>
+        <v>Daiquiri (Durazno, Fresa, Mango)</v>
       </c>
       <c r="B23" t="str">
         <v/>
       </c>
       <c r="C23" t="str">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D23" t="str">
-        <v>Botellas</v>
+        <v>Cocteles</v>
       </c>
       <c r="E23" t="str">
         <v/>
@@ -849,16 +849,16 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>La Juiciosa</v>
+        <v>Pisco Sour Canela</v>
       </c>
       <c r="B24" t="str">
-        <v>Fresa + Granadilla + Pisco + Naranja.</v>
+        <v/>
       </c>
       <c r="C24" t="str">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" t="str">
-        <v>Barra de Destilados</v>
+        <v>Pisco Sour</v>
       </c>
       <c r="E24" t="str">
         <v/>
@@ -869,16 +869,16 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>La Exótica</v>
+        <v>Pisco Sour Flor de Jamaica</v>
       </c>
       <c r="B25" t="str">
-        <v>Aguaymanto + Piña + Pisco + Naranja.</v>
+        <v/>
       </c>
       <c r="C25" t="str">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" t="str">
-        <v>Barra de Destilados</v>
+        <v>Pisco Sour</v>
       </c>
       <c r="E25" t="str">
         <v/>
@@ -889,16 +889,16 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Pilsen Fashion</v>
+        <v>Pisco Sour Clásico</v>
       </c>
       <c r="B26" t="str">
-        <v>Pilsen + Hierba Buena + Goma + Limón + Ron.</v>
+        <v/>
       </c>
       <c r="C26" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" t="str">
-        <v>Barra de Destilados</v>
+        <v>Pisco Sour</v>
       </c>
       <c r="E26" t="str">
         <v/>
@@ -909,16 +909,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Parado y Sin Polo</v>
+        <v>Pisco Sour Maracuyá</v>
       </c>
       <c r="B27" t="str">
-        <v>Pisco + Aguaymanto + Limón + Pisco.</v>
+        <v/>
       </c>
       <c r="C27" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" t="str">
-        <v>Barra de Destilados</v>
+        <v>Pisco Sour</v>
       </c>
       <c r="E27" t="str">
         <v/>
@@ -929,16 +929,16 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Ponche Ternura</v>
+        <v>Pisco Sour Hoja de Coca</v>
       </c>
       <c r="B28" t="str">
-        <v>Maracuyá + Aguaymanto + Hierba Buena + Limón + Pisco.</v>
+        <v/>
       </c>
       <c r="C28" t="str">
         <v>20</v>
       </c>
       <c r="D28" t="str">
-        <v>Barra de Destilados</v>
+        <v>Pisco Sour</v>
       </c>
       <c r="E28" t="str">
         <v/>
@@ -949,16 +949,16 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>La Pachamama</v>
+        <v>Mojito Clásico</v>
       </c>
       <c r="B29" t="str">
-        <v>Macerado de coca con sabores a cítricos de granadilla, una ofrenta a nuestra tierra.</v>
+        <v/>
       </c>
       <c r="C29" t="str">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" t="str">
-        <v>Barra de Destilados</v>
+        <v>Mojitos</v>
       </c>
       <c r="E29" t="str">
         <v/>
@@ -969,16 +969,16 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>El Callejón</v>
+        <v>Mojito Fresa</v>
       </c>
       <c r="B30" t="str">
-        <v>Un trago a base de whisky con licor de durazno y su toque ácido. Para este calor, ¡Buenazo!.</v>
+        <v/>
       </c>
       <c r="C30" t="str">
         <v>20</v>
       </c>
       <c r="D30" t="str">
-        <v>Barra de Destilados</v>
+        <v>Mojitos</v>
       </c>
       <c r="E30" t="str">
         <v/>
@@ -989,16 +989,16 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>El Inti</v>
+        <v>Mojito Maracuyá</v>
       </c>
       <c r="B31" t="str">
-        <v>Sabores a macerado de coca y sus tonos cítricos de naranja, otra cosita este coctel.</v>
+        <v/>
       </c>
       <c r="C31" t="str">
         <v>20</v>
       </c>
       <c r="D31" t="str">
-        <v>Barra de Destilados</v>
+        <v>Mojitos</v>
       </c>
       <c r="E31" t="str">
         <v/>
@@ -1009,16 +1009,16 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>El Diablo</v>
+        <v>Mojito Aguaymanto</v>
       </c>
       <c r="B32" t="str">
-        <v>El tequila se pone mano a mano con el pisco para sacar este trago cítrico y empilador.</v>
+        <v/>
       </c>
       <c r="C32" t="str">
         <v>20</v>
       </c>
       <c r="D32" t="str">
-        <v>Barra de Destilados</v>
+        <v>Mojitos</v>
       </c>
       <c r="E32" t="str">
         <v/>
@@ -1029,16 +1029,16 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>El Jamaiquino</v>
+        <v>Pilsen</v>
       </c>
       <c r="B33" t="str">
-        <v>Espiritual y refrescante, sabor a piña y macerado de flor de Jamaica.</v>
+        <v/>
       </c>
       <c r="C33" t="str">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D33" t="str">
-        <v>Barra de Destilados</v>
+        <v>Cervezas</v>
       </c>
       <c r="E33" t="str">
         <v/>
@@ -1049,16 +1049,16 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>El Inca</v>
+        <v>Cusqueña</v>
       </c>
       <c r="B34" t="str">
-        <v>Macerado de canela con toques a hoja de coca y a especies, vas alucinar toda tu noche.</v>
+        <v/>
       </c>
       <c r="C34" t="str">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D34" t="str">
-        <v>Barra de Destilados</v>
+        <v>Cervezas</v>
       </c>
       <c r="E34" t="str">
         <v/>
@@ -1069,16 +1069,16 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Moscow Mule</v>
+        <v>Corona</v>
       </c>
       <c r="B35" t="str">
         <v/>
       </c>
       <c r="C35" t="str">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D35" t="str">
-        <v>Barra de Destilados</v>
+        <v>Cervezas</v>
       </c>
       <c r="E35" t="str">
         <v/>
@@ -1089,16 +1089,16 @@
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Margarita Corona</v>
+        <v>Balde Cerveza (6 und) Cusqueña - Corona - Pilsen</v>
       </c>
       <c r="B36" t="str">
-        <v>El clásico de siempre.</v>
+        <v/>
       </c>
       <c r="C36" t="str">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="D36" t="str">
-        <v>Margaritas</v>
+        <v>Cervezas</v>
       </c>
       <c r="E36" t="str">
         <v/>
@@ -1109,16 +1109,16 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Margarita Red Fire</v>
+        <v>Vino Rose Queirolo</v>
       </c>
       <c r="B37" t="str">
-        <v>Su coronita encendida por la fresa, tequila y cítricos.</v>
+        <v/>
       </c>
       <c r="C37" t="str">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D37" t="str">
-        <v>Margaritas</v>
+        <v>Botellas</v>
       </c>
       <c r="E37" t="str">
         <v/>
@@ -1129,16 +1129,16 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Margarita Pasión</v>
+        <v>Vino Tabernero</v>
       </c>
       <c r="B38" t="str">
-        <v>Su coronita acompañada con sabores a maracuyá y su buen chorro de tequila.</v>
+        <v/>
       </c>
       <c r="C38" t="str">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D38" t="str">
-        <v>Margaritas</v>
+        <v>Botellas</v>
       </c>
       <c r="E38" t="str">
         <v/>
@@ -1149,16 +1149,16 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Margarita Iqueña</v>
+        <v>Agua San Mateo Personal</v>
       </c>
       <c r="B39" t="str">
-        <v>Su coronita endulzada con sabores a uva, cítricos y obviamente su buen tequila.</v>
+        <v/>
       </c>
       <c r="C39" t="str">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D39" t="str">
-        <v>Margaritas</v>
+        <v>Botellas</v>
       </c>
       <c r="E39" t="str">
         <v/>
@@ -1169,16 +1169,16 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Margarita Selvática</v>
+        <v>La Juiciosa</v>
       </c>
       <c r="B40" t="str">
-        <v>Infaltable, si señores una margarita de camu camu, solo queda probarla.</v>
+        <v>Fresa + Granadilla + Pisco + Naranja.</v>
       </c>
       <c r="C40" t="str">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D40" t="str">
-        <v>Margaritas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E40" t="str">
         <v/>
@@ -1189,16 +1189,16 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Torre de Chilcanos</v>
+        <v>La Exótica</v>
       </c>
       <c r="B41" t="str">
-        <v/>
+        <v>Aguaymanto + Piña + Pisco + Naranja.</v>
       </c>
       <c r="C41" t="str">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="D41" t="str">
-        <v>Margaritas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E41" t="str">
         <v/>
@@ -1209,16 +1209,16 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Torre de Chilcanos con Fruta</v>
+        <v>Pilsen Fashion</v>
       </c>
       <c r="B42" t="str">
-        <v/>
+        <v>Pilsen + Hierba Buena + Goma + Limón + Ron.</v>
       </c>
       <c r="C42" t="str">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="D42" t="str">
-        <v>Margaritas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E42" t="str">
         <v/>
@@ -1229,19 +1229,19 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Sanguche Hawaiano</v>
+        <v>Parado y Sin Polo</v>
       </c>
       <c r="B43" t="str">
-        <v>Pollito al grill con su rodaja de piña y su queso derretido acompañadas de sus papitas fritas.</v>
+        <v>Pisco + Aguaymanto + Limón + Pisco.</v>
       </c>
       <c r="C43" t="str">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D43" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E43" t="str">
-        <v>https://images.unsplash.com/photo-1568901346375-23c9450c58cd?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F43" t="str">
         <v>S/.</v>
@@ -1249,19 +1249,19 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Criolla</v>
+        <v>Ponche Ternura</v>
       </c>
       <c r="B44" t="str">
-        <v>Nuestra hamburguesa aderezada con sabores a carretilla, adornada con chorizo artesanal, la cubre dados de palta y una tartara de la casa.</v>
+        <v>Maracuyá + Aguaymanto + Hierba Buena + Limón + Pisco.</v>
       </c>
       <c r="C44" t="str">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D44" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E44" t="str">
-        <v>https://images.unsplash.com/photo-1572802419224-296b0aeee0d9?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F44" t="str">
         <v>S/.</v>
@@ -1269,19 +1269,19 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Santa Isabel</v>
+        <v>La Pachamama</v>
       </c>
       <c r="B45" t="str">
-        <v>Una artesanal montada con chorizo aplastador, queso edam pickles, su chimichurri y una cremita de nuestro rocoto peruano.</v>
+        <v>Macerado de coca con sabores a cítricos de granadilla, una ofrenta a nuestra tierra.</v>
       </c>
       <c r="C45" t="str">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D45" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E45" t="str">
-        <v>https://images.unsplash.com/photo-1586816001966-79b736744398?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F45" t="str">
         <v>S/.</v>
@@ -1289,19 +1289,19 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Imperial Plus</v>
+        <v>El Callejón</v>
       </c>
       <c r="B46" t="str">
-        <v>Tocino tostado con huevo a la inglesa más su queso derretido. ¡Combinación que no tiene pierde!</v>
+        <v>Un trago a base de whisky con licor de durazno y su toque ácido. Para este calor, ¡Buenazo!.</v>
       </c>
       <c r="C46" t="str">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D46" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E46" t="str">
-        <v>https://images.unsplash.com/photo-1550950158-d0d960dff596?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F46" t="str">
         <v>S/.</v>
@@ -1309,19 +1309,19 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Amazonico</v>
+        <v>El Inti</v>
       </c>
       <c r="B47" t="str">
-        <v>De la selva su hamburguesa, chorizo selvatico, plátano bellaco dorado, pico de gallo con palta y su mayonesa de culantro.</v>
+        <v>Sabores a macerado de coca y sus tonos cítricos de naranja, otra cosita este coctel.</v>
       </c>
       <c r="C47" t="str">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D47" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E47" t="str">
-        <v>https://images.unsplash.com/photo-1565299543923-37dd37887442?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F47" t="str">
         <v>S/.</v>
@@ -1329,19 +1329,19 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Pecado Elevado</v>
+        <v>El Diablo</v>
       </c>
       <c r="B48" t="str">
-        <v>Un clasico de la casa, huevo a la inglesa plátano dorado y su tocino tostado bañado con una mayonesa de culantro.</v>
+        <v>El tequila se pone mano a mano con el pisco para sacar este trago cítrico y empilador.</v>
       </c>
       <c r="C48" t="str">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D48" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E48" t="str">
-        <v>https://images.unsplash.com/photo-1551782450-17144efb9c50?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F48" t="str">
         <v>S/.</v>
@@ -1349,19 +1349,19 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Vaquero</v>
+        <v>El Jamaiquino</v>
       </c>
       <c r="B49" t="str">
-        <v>Su hamburguesa jugosa montada con tocino, queso cheddar, huevo montado y su salsa draft.</v>
+        <v>Espiritual y refrescante, sabor a piña y macerado de flor de Jamaica.</v>
       </c>
       <c r="C49" t="str">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D49" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E49" t="str">
-        <v>https://images.unsplash.com/photo-1553979459-d2229ba7433b?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F49" t="str">
         <v>S/.</v>
@@ -1369,19 +1369,19 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>La Gaucha</v>
+        <v>El Inca</v>
       </c>
       <c r="B50" t="str">
-        <v>Hamburguesa a la parrilla montada con chorizo a las hierbas finas, chimichurri, cebolla dorada y su pico de gallo.</v>
+        <v>Macerado de canela con toques a hoja de coca y a especies, vas alucinar toda tu noche.</v>
       </c>
       <c r="C50" t="str">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D50" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E50" t="str">
-        <v>https://images.unsplash.com/photo-1561758033-d89a9ad46330?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F50" t="str">
         <v>S/.</v>
@@ -1389,19 +1389,19 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Burking</v>
+        <v>Moscow Mule</v>
       </c>
       <c r="B51" t="str">
-        <v>Hamburguesa artesanal bañada con nuestro BBQ americano, lonjas de tocino, pickles y su unión rings. ¡Para que mas, pecador!</v>
+        <v/>
       </c>
       <c r="C51" t="str">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D51" t="str">
-        <v>Hamburguesas</v>
+        <v>Barra de Destilados</v>
       </c>
       <c r="E51" t="str">
-        <v>https://images.unsplash.com/photo-1606131731446-5568d87113aa?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F51" t="str">
         <v>S/.</v>
@@ -1409,19 +1409,19 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Salchipapa De la Casa</v>
+        <v>Margarita Corona</v>
       </c>
       <c r="B52" t="str">
-        <v>Dados de pollito al panco, acompañado de nuestro frankfourt con su ensalada y papas fritas.</v>
+        <v>El clásico de siempre.</v>
       </c>
       <c r="C52" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D52" t="str">
-        <v>Salchipapas</v>
+        <v>Margaritas</v>
       </c>
       <c r="E52" t="str">
-        <v>https://images.unsplash.com/photo-1573080496219-bb080dd4f877?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F52" t="str">
         <v>S/.</v>
@@ -1429,19 +1429,19 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>La Callejera</v>
+        <v>Margarita Red Fire</v>
       </c>
       <c r="B53" t="str">
-        <v>La tradicional montada con plátano dorado y su tocino ahumado.</v>
+        <v>Su coronita encendida por la fresa, tequila y cítricos.</v>
       </c>
       <c r="C53" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D53" t="str">
-        <v>Salchipapas</v>
+        <v>Margaritas</v>
       </c>
       <c r="E53" t="str">
-        <v>https://images.unsplash.com/photo-1585518419759-7fe2e0fbf8a6?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F53" t="str">
         <v>S/.</v>
@@ -1449,19 +1449,19 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>La Completa</v>
+        <v>Margarita Pasión</v>
       </c>
       <c r="B54" t="str">
-        <v>Imaginar un huevito a la inglesa y plátano montado es demasiado sabroso y un clasico de la casa.</v>
+        <v>Su coronita acompañada con sabores a maracuyá y su buen chorro de tequila.</v>
       </c>
       <c r="C54" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D54" t="str">
-        <v>Salchipapas</v>
+        <v>Margaritas</v>
       </c>
       <c r="E54" t="str">
-        <v>https://images.unsplash.com/photo-1568605115459-4b731184f961?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F54" t="str">
         <v>S/.</v>
@@ -1469,19 +1469,19 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>La Acecina</v>
+        <v>Margarita Iqueña</v>
       </c>
       <c r="B55" t="str">
-        <v>Chorizo selvático, cecina y frankfurt. ¡Una combinación paradora!</v>
+        <v>Su coronita endulzada con sabores a uva, cítricos y obviamente su buen tequila.</v>
       </c>
       <c r="C55" t="str">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D55" t="str">
-        <v>Salchipapas</v>
+        <v>Margaritas</v>
       </c>
       <c r="E55" t="str">
-        <v>https://images.unsplash.com/photo-1511689660979-10d2b1eccbab?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F55" t="str">
         <v>S/.</v>
@@ -1489,19 +1489,19 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>La Golosa</v>
+        <v>Margarita Selvática</v>
       </c>
       <c r="B56" t="str">
-        <v>Nuestro embutido frankfurt sale con trozos de panceta ahumada, sus papasfritas y nuestra ensalada orgánica.</v>
+        <v>Infaltable, si señores una margarita de camu camu, solo queda probarla.</v>
       </c>
       <c r="C56" t="str">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D56" t="str">
-        <v>Salchipapas</v>
+        <v>Margaritas</v>
       </c>
       <c r="E56" t="str">
-        <v>https://images.unsplash.com/photo-1563805042-7684c019e1cb?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F56" t="str">
         <v>S/.</v>
@@ -1509,19 +1509,19 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Anticuchos de Corazón</v>
+        <v>Torre de Chilcanos</v>
       </c>
       <c r="B57" t="str">
-        <v>Sabor a carretilla y sale con sus papas amarillas fritas.</v>
+        <v/>
       </c>
       <c r="C57" t="str">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D57" t="str">
-        <v>Parrillas</v>
+        <v>Margaritas</v>
       </c>
       <c r="E57" t="str">
-        <v>https://images.unsplash.com/photo-1529193591184-b1d58069ecdd?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F57" t="str">
         <v>S/.</v>
@@ -1529,19 +1529,19 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Mollejitas a la Parrilla</v>
+        <v>Torre de Chilcanos con Fruta</v>
       </c>
       <c r="B58" t="str">
-        <v>Infaltable en las calles y en nuestra carta. Salen con sus papas amarillas fritas.</v>
+        <v/>
       </c>
       <c r="C58" t="str">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="D58" t="str">
-        <v>Parrillas</v>
+        <v>Margaritas</v>
       </c>
       <c r="E58" t="str">
-        <v>https://images.unsplash.com/photo-1544025162-d76538e5e0a1?w=400&amp;q=80</v>
+        <v/>
       </c>
       <c r="F58" t="str">
         <v>S/.</v>
